--- a/FileNames/18-ECMW-QCD-005 Internal Audit QMS.xlsx
+++ b/FileNames/18-ECMW-QCD-005 Internal Audit QMS.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Google Drive\QMS-Updated Names\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
@@ -754,14 +759,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -769,8 +792,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -781,27 +807,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,6 +816,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -859,7 +867,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -894,7 +902,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1105,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M26" sqref="M26:T26"/>
     </sheetView>
   </sheetViews>
@@ -1115,46 +1123,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1232,1257 +1240,1282 @@
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4" t="s">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4" t="s">
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="12"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="19"/>
     </row>
     <row r="9" spans="1:38" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="7" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="15"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="7"/>
     </row>
     <row r="10" spans="1:38" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="15"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="7"/>
     </row>
     <row r="11" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="15"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="7"/>
     </row>
     <row r="12" spans="1:38" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="15"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="7"/>
     </row>
     <row r="13" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="15"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="7"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="19"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="10"/>
     </row>
     <row r="15" spans="1:38" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="15"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="7"/>
     </row>
     <row r="16" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="15"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="7"/>
     </row>
     <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="15"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="7"/>
     </row>
     <row r="18" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="15"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="7"/>
     </row>
     <row r="19" spans="1:38" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="15"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="7"/>
     </row>
     <row r="20" spans="1:38" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="15"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="7"/>
     </row>
     <row r="21" spans="1:38" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="15"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="7"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="19"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="10"/>
     </row>
     <row r="23" spans="1:38" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="7" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
-      <c r="AL23" s="15"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="7"/>
     </row>
     <row r="24" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="7" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="15"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="7"/>
     </row>
     <row r="25" spans="1:38" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="7" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="15"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="7"/>
     </row>
     <row r="26" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="7" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="15"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="7"/>
     </row>
     <row r="27" spans="1:38" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="7" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="15"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="7"/>
     </row>
     <row r="28" spans="1:38" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="7" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="15"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="7"/>
     </row>
     <row r="29" spans="1:38" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="7" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="15"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="7"/>
     </row>
     <row r="30" spans="1:38" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="7" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="15"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="7"/>
     </row>
     <row r="31" spans="1:38" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="7" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="15"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="7"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
       <c r="AL32" s="3"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
       <c r="AL33" s="3"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6"/>
-      <c r="AK34" s="6"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
       <c r="AL34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="Y33:AK33"/>
-    <mergeCell ref="Y34:AK34"/>
-    <mergeCell ref="Y12:AL12"/>
-    <mergeCell ref="Y13:AL13"/>
-    <mergeCell ref="Y14:AL14"/>
-    <mergeCell ref="Y15:AL15"/>
-    <mergeCell ref="Y32:AK32"/>
-    <mergeCell ref="Y27:AL27"/>
-    <mergeCell ref="Y28:AL28"/>
-    <mergeCell ref="Y29:AL29"/>
-    <mergeCell ref="Y30:AL30"/>
-    <mergeCell ref="Y26:AL26"/>
-    <mergeCell ref="Y16:AL16"/>
-    <mergeCell ref="Y17:AL17"/>
-    <mergeCell ref="Y18:AL18"/>
-    <mergeCell ref="Y19:AL19"/>
-    <mergeCell ref="Y31:AL31"/>
-    <mergeCell ref="Y20:AL20"/>
-    <mergeCell ref="Y21:AL21"/>
-    <mergeCell ref="Y22:AL22"/>
-    <mergeCell ref="Y23:AL23"/>
-    <mergeCell ref="Y24:AL24"/>
-    <mergeCell ref="Y25:AL25"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y7:AL7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="M15:T15"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y8:AL8"/>
+    <mergeCell ref="Y9:AL9"/>
+    <mergeCell ref="Y10:AL10"/>
+    <mergeCell ref="Y11:AL11"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M24:T24"/>
+    <mergeCell ref="M25:T25"/>
+    <mergeCell ref="M26:T26"/>
+    <mergeCell ref="M27:T27"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="M17:T17"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="M19:T19"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="M21:T21"/>
     <mergeCell ref="U20:X20"/>
     <mergeCell ref="U21:X21"/>
     <mergeCell ref="U22:X22"/>
@@ -2507,69 +2540,44 @@
     <mergeCell ref="U29:X29"/>
     <mergeCell ref="U30:X30"/>
     <mergeCell ref="U31:X31"/>
-    <mergeCell ref="M24:T24"/>
-    <mergeCell ref="M25:T25"/>
-    <mergeCell ref="M26:T26"/>
-    <mergeCell ref="M27:T27"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="M17:T17"/>
-    <mergeCell ref="M18:T18"/>
-    <mergeCell ref="M19:T19"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="M21:T21"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y7:AL7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="M15:T15"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y8:AL8"/>
-    <mergeCell ref="Y9:AL9"/>
-    <mergeCell ref="Y10:AL10"/>
-    <mergeCell ref="Y11:AL11"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y33:AK33"/>
+    <mergeCell ref="Y34:AK34"/>
+    <mergeCell ref="Y12:AL12"/>
+    <mergeCell ref="Y13:AL13"/>
+    <mergeCell ref="Y14:AL14"/>
+    <mergeCell ref="Y15:AL15"/>
+    <mergeCell ref="Y32:AK32"/>
+    <mergeCell ref="Y27:AL27"/>
+    <mergeCell ref="Y28:AL28"/>
+    <mergeCell ref="Y29:AL29"/>
+    <mergeCell ref="Y30:AL30"/>
+    <mergeCell ref="Y26:AL26"/>
+    <mergeCell ref="Y16:AL16"/>
+    <mergeCell ref="Y17:AL17"/>
+    <mergeCell ref="Y18:AL18"/>
+    <mergeCell ref="Y19:AL19"/>
+    <mergeCell ref="Y31:AL31"/>
+    <mergeCell ref="Y20:AL20"/>
+    <mergeCell ref="Y21:AL21"/>
+    <mergeCell ref="Y22:AL22"/>
+    <mergeCell ref="Y23:AL23"/>
+    <mergeCell ref="Y24:AL24"/>
+    <mergeCell ref="Y25:AL25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;G</oddHeader>
-    <oddFooter>&amp;LECMW-QCD-005&amp;CRevision Date: 1-21-14 C&amp;R&amp;P</oddFooter>
+    <oddFooter xml:space="preserve">&amp;LECMW-QCD-005&amp;C&amp;P&amp;RRevision Date: 1-21-14 C </oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
